--- a/lib_testcase/com.aislend.ViewCart.xlsx
+++ b/lib_testcase/com.aislend.ViewCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="286">
   <si>
     <t>Action</t>
   </si>
@@ -788,6 +788,160 @@
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir2304_5586}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 3029accc9e73fa132c825781c7109fc7
 *** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash sangal</t>
+  </si>
+  <si>
+    <t>MoveToProductList: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>text not verified: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir1852_6395}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: c722fa5f1e07794f4a62674b45560173</t>
+  </si>
+  <si>
+    <t>VerifyNoElement: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: exist</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: Banquet Brown 'N Serve Turkey Sausage Links</t>
+  </si>
+  <si>
+    <t>text not verified: Customers can opt for replacements in case an item is out of stock. We will choose a replacement item that is comparable to the original based on brand, flavor, size and price. You will be notified of replacements and will have the opportunity to approve the replacement or request a refund for the item.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir1852_6395}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: c722fa5f1e07794f4a62674b45560173</t>
+  </si>
+  <si>
+    <t>AddInstruction: Hello</t>
+  </si>
+  <si>
+    <t>EditInstruction: Bye</t>
+  </si>
+  <si>
+    <t>RemoveInstruction: null</t>
+  </si>
+  <si>
+    <t>SetText: asdasd@</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>SetText: asdasd@assdcsadsaasd.com</t>
+  </si>
+  <si>
+    <t>VerifyText: Thank you for your subscription.</t>
+  </si>
+  <si>
+    <t>SelectSubstitute: Do Not Allow Substitute</t>
+  </si>
+  <si>
+    <t>SelectSubstitute: Allow Substitute</t>
+  </si>
+  <si>
+    <t>VerifySummaryViewCart: null</t>
+  </si>
+  <si>
+    <t>AddProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>RemoveProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>DeleteProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>DeleteProductfromViewCart: all</t>
+  </si>
+  <si>
+    <t>VerifyFooterLinks: null</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir14748_8883}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: e94edf47ff520170e7f7d76c7c135db7</t>
+  </si>
+  <si>
+    <t>VerifyText: Customers can opt for replacements in case an item is out of stock. We will choose a replacement item that is comparable to the original based on brand, flavor, size and price. You will be notified of replacements and will have the opportunity to approve the replacement or request a refund for the item.</t>
+  </si>
+  <si>
+    <t>For input string: "Free"</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir14748_8883}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: e94edf47ff520170e7f7d76c7c135db7
+*** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir14748_8883}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: e94edf47ff520170e7f7d76c7c135db7
+*** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
+  </si>
+  <si>
+    <t>VerifyText: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 3fddb53966380820a83efadd593af767</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1754,7 @@
         <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>119</v>
@@ -1639,7 +1793,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>119</v>
@@ -1678,7 +1832,7 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>119</v>
@@ -1717,7 +1871,7 @@
         <v>46</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>119</v>
@@ -1762,7 +1916,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>119</v>
@@ -1803,7 +1957,7 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>119</v>
@@ -1842,7 +1996,7 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>119</v>
@@ -1883,7 +2037,7 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>119</v>
@@ -1920,7 +2074,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>119</v>
@@ -1959,7 +2113,7 @@
         <v>36</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>119</v>
@@ -2002,7 +2156,7 @@
         <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>119</v>
@@ -2041,7 +2195,7 @@
         <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>119</v>
@@ -2080,7 +2234,7 @@
         <v>36</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>119</v>
@@ -2121,7 +2275,7 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>119</v>
@@ -2160,7 +2314,7 @@
         <v>36</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>119</v>
@@ -2199,7 +2353,7 @@
         <v>36</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>119</v>
@@ -2242,7 +2396,7 @@
         <v>36</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>119</v>
@@ -2281,7 +2435,7 @@
         <v>36</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>119</v>
@@ -2322,7 +2476,7 @@
         <v>36</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>119</v>
@@ -2363,7 +2517,7 @@
         <v>36</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>119</v>
@@ -2404,7 +2558,7 @@
         <v>36</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>119</v>
@@ -2445,7 +2599,7 @@
         <v>36</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>119</v>
@@ -2486,7 +2640,7 @@
         <v>36</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>119</v>
@@ -2525,7 +2679,7 @@
         <v>36</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>119</v>
@@ -2566,7 +2720,7 @@
         <v>36</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>119</v>
@@ -2607,7 +2761,7 @@
         <v>36</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>119</v>
@@ -2646,7 +2800,7 @@
         <v>36</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>119</v>
@@ -2687,7 +2841,7 @@
         <v>36</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>119</v>
@@ -2726,7 +2880,7 @@
         <v>36</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>119</v>
@@ -2765,7 +2919,7 @@
         <v>36</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>119</v>
@@ -2804,7 +2958,7 @@
         <v>108</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>119</v>
@@ -2845,13 +2999,13 @@
         <v>178</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>106</v>
@@ -2886,13 +3040,13 @@
         <v>187</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>106</v>
@@ -2927,7 +3081,7 @@
         <v>187</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>119</v>
@@ -2968,7 +3122,7 @@
         <v>194</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>119</v>
@@ -3007,7 +3161,7 @@
         <v>200</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>119</v>
@@ -3048,7 +3202,7 @@
         <v>207</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>119</v>
@@ -3085,7 +3239,7 @@
         <v>236</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>119</v>
@@ -3124,7 +3278,7 @@
         <v>211</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>119</v>
@@ -3165,7 +3319,7 @@
         <v>215</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>119</v>
@@ -3206,7 +3360,7 @@
         <v>207</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>119</v>
@@ -3245,7 +3399,7 @@
         <v>211</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>119</v>
@@ -3286,7 +3440,7 @@
         <v>221</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>119</v>
@@ -3327,7 +3481,7 @@
         <v>114</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>119</v>
@@ -3368,7 +3522,7 @@
         <v>114</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>119</v>
@@ -3409,7 +3563,7 @@
         <v>114</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>119</v>
@@ -3450,7 +3604,7 @@
         <v>114</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>119</v>
@@ -3491,7 +3645,7 @@
         <v>114</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>119</v>
@@ -3532,7 +3686,7 @@
         <v>114</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>119</v>
@@ -3571,7 +3725,7 @@
         <v>136</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>138</v>
+        <v>273</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>119</v>
@@ -3612,7 +3766,7 @@
         <v>118</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>119</v>
@@ -3651,13 +3805,13 @@
         <v>136</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>106</v>
@@ -3692,7 +3846,7 @@
         <v>118</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>119</v>
@@ -3731,7 +3885,7 @@
         <v>136</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>138</v>
+        <v>273</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>119</v>
@@ -3772,7 +3926,7 @@
         <v>132</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>119</v>
@@ -3813,7 +3967,7 @@
         <v>132</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>119</v>
@@ -3852,7 +4006,7 @@
         <v>136</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>138</v>
+        <v>273</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>119</v>
@@ -3891,7 +4045,7 @@
         <v>230</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>119</v>
@@ -3930,7 +4084,7 @@
         <v>142</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>119</v>
@@ -3969,7 +4123,7 @@
         <v>145</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>119</v>
@@ -4004,7 +4158,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>119</v>
@@ -4043,7 +4197,7 @@
         <v>40</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>119</v>

--- a/lib_testcase/com.aislend.ViewCart.xlsx
+++ b/lib_testcase/com.aislend.ViewCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="336">
   <si>
     <t>Action</t>
   </si>
@@ -942,6 +942,431 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 3fddb53966380820a83efadd593af767</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
+  </si>
+  <si>
+    <t>action set text failed: Randomemailid</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
+  </si>
+  <si>
+    <t>action set text failed: 123456</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
+  </si>
+  <si>
+    <t>text not verified: Akash sangal</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //span[contains(text(),'Akash')] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
+  </si>
+  <si>
+    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 11 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 12 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 7 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>Element not verified</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 12 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 10 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 12 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: exist</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 11 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: Banquet Brown 'N Serve Turkey Sausage Links</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 9 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
+  </si>
+  <si>
+    <t>bound must be positive</t>
+  </si>
+  <si>
+    <t>action set text failed: asdasd@</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=newsletter}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
+  </si>
+  <si>
+    <t>text not verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: newsletter-error (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
+  </si>
+  <si>
+    <t>action set text failed: asdasd@assdcsadsaasd.com</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 8 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=newsletter}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 9 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
+  </si>
+  <si>
+    <t>text not verified: Thank you for your subscription.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'text'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
+  </si>
+  <si>
+    <t>action Select Substitute failed: Do Not Allow Substitute</t>
+  </si>
+  <si>
+    <t>action Select Substitute failed: Allow Substitute</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 22 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
+  </si>
+  <si>
+    <t>action AddProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
+  </si>
+  <si>
+    <t>action RemoveProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 11 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
+  </si>
+  <si>
+    <t>action DeleteProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
+  </si>
+  <si>
+    <t>action VerifyFooterLinks failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'footer__inner-left']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'footer__inner-left']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +2182,7 @@
         <v>248</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>120</v>
@@ -1796,7 +2221,7 @@
         <v>249</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>120</v>
@@ -1832,13 +2257,13 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>106</v>
@@ -1874,7 +2299,7 @@
         <v>249</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>120</v>
@@ -1916,13 +2341,13 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>106</v>
@@ -1957,13 +2382,13 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>106</v>
@@ -1996,13 +2421,13 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>120</v>
+        <v>292</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>106</v>
@@ -2037,13 +2462,13 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>120</v>
+        <v>294</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>106</v>
@@ -2077,7 +2502,7 @@
         <v>248</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>120</v>
@@ -2116,7 +2541,7 @@
         <v>249</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>120</v>
@@ -2156,13 +2581,13 @@
         <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>106</v>
@@ -2195,13 +2620,13 @@
         <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>120</v>
+        <v>297</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>106</v>
@@ -2237,7 +2662,7 @@
         <v>249</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>120</v>
@@ -2275,13 +2700,13 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>120</v>
+        <v>298</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>106</v>
@@ -2314,13 +2739,13 @@
         <v>36</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>120</v>
+        <v>299</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>106</v>
@@ -2353,13 +2778,13 @@
         <v>36</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>106</v>
@@ -2396,13 +2821,13 @@
         <v>36</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>106</v>
@@ -2435,13 +2860,13 @@
         <v>36</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>106</v>
@@ -2476,13 +2901,13 @@
         <v>36</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>120</v>
+        <v>306</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>106</v>
@@ -2517,13 +2942,13 @@
         <v>36</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>106</v>
@@ -2558,13 +2983,13 @@
         <v>36</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>106</v>
@@ -2599,13 +3024,13 @@
         <v>36</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>106</v>
@@ -2640,13 +3065,13 @@
         <v>36</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>106</v>
@@ -2679,13 +3104,13 @@
         <v>36</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>106</v>
@@ -2720,13 +3145,13 @@
         <v>36</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>106</v>
@@ -2761,13 +3186,13 @@
         <v>36</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>106</v>
@@ -2800,13 +3225,13 @@
         <v>36</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>120</v>
+        <v>309</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>106</v>
@@ -2841,13 +3266,13 @@
         <v>36</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>106</v>
@@ -2880,13 +3305,13 @@
         <v>36</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>120</v>
+        <v>297</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>106</v>
@@ -2922,7 +3347,7 @@
         <v>249</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>120</v>
@@ -2958,13 +3383,13 @@
         <v>108</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>106</v>
@@ -3005,7 +3430,7 @@
         <v>151</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>106</v>
@@ -3040,13 +3465,13 @@
         <v>187</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>106</v>
@@ -3081,13 +3506,13 @@
         <v>187</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>106</v>
@@ -3202,13 +3627,13 @@
         <v>207</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>106</v>
@@ -3278,13 +3703,13 @@
         <v>211</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>120</v>
+        <v>315</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>106</v>
@@ -3319,13 +3744,13 @@
         <v>215</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>106</v>
@@ -3360,13 +3785,13 @@
         <v>207</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>120</v>
+        <v>319</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>106</v>
@@ -3399,13 +3824,13 @@
         <v>211</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>106</v>
@@ -3440,13 +3865,13 @@
         <v>221</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>120</v>
+        <v>322</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>106</v>
@@ -3481,13 +3906,13 @@
         <v>114</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>106</v>
@@ -3522,13 +3947,13 @@
         <v>114</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>106</v>
@@ -3563,13 +3988,13 @@
         <v>114</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>106</v>
@@ -3604,13 +4029,13 @@
         <v>114</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="O48" s="4" t="s">
         <v>106</v>
@@ -3645,13 +4070,13 @@
         <v>114</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>106</v>
@@ -3686,13 +4111,13 @@
         <v>114</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="O50" s="4" t="s">
         <v>106</v>
@@ -3725,13 +4150,13 @@
         <v>136</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>106</v>
@@ -3766,13 +4191,13 @@
         <v>118</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>106</v>
@@ -3805,13 +4230,13 @@
         <v>136</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>120</v>
+        <v>327</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>106</v>
@@ -3846,13 +4271,13 @@
         <v>118</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="O54" s="4" t="s">
         <v>106</v>
@@ -3885,13 +4310,13 @@
         <v>136</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>120</v>
+        <v>329</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>106</v>
@@ -3926,13 +4351,13 @@
         <v>132</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>106</v>
@@ -3970,7 +4395,7 @@
         <v>277</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>120</v>
@@ -4006,13 +4431,13 @@
         <v>136</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>120</v>
+        <v>331</v>
       </c>
       <c r="O58" s="4" t="s">
         <v>106</v>
@@ -4045,13 +4470,13 @@
         <v>230</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>120</v>
+        <v>333</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>106</v>
@@ -4084,13 +4509,13 @@
         <v>142</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>120</v>
+        <v>334</v>
       </c>
       <c r="O60" s="4" t="s">
         <v>106</v>
@@ -4123,13 +4548,13 @@
         <v>145</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>120</v>
+        <v>335</v>
       </c>
       <c r="O61" s="4" t="s">
         <v>106</v>
@@ -4200,7 +4625,7 @@
         <v>249</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>120</v>

--- a/lib_testcase/com.aislend.ViewCart.xlsx
+++ b/lib_testcase/com.aislend.ViewCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="374">
   <si>
     <t>Action</t>
   </si>
@@ -1367,6 +1367,463 @@
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
 *** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16332_11117}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 9c18b6eba1fd84c2d299ea53aea5b4dc</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16332_11117}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 9c18b6eba1fd84c2d299ea53aea5b4dc</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;input type="radio" data-bind="click: getSubstitute.bind($data,0, quoteid, itemid,'notallowed_'), attr: {checked: isNotChecked(), name: getAllowedName(), id: getNotAllowedName()}" name="allowed_3124" id="notallowed_3124"&gt; is not clickable at point (161, 6). Other element would receive the click: &lt;img src="https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png" alt="City Market Norwalk" width="148" height="43"&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 123 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16332_11117}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 9c18b6eba1fd84c2d299ea53aea5b4dc</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 19 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //span[contains(text(),'Akash')] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 12 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 12 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 30 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 64 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 29 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 62 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 43 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 29 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 37 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 27 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 61 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 31 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 28 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 29 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 29 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 32 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=newsletter}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 23 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: newsletter-error (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=newsletter}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 21 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'text'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 64 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 42 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 59 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'footer__inner-left']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'footer__inner-left']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 31 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5748_14413}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0a6edcb7a5ce9e8996ef2813ea87b4d0
+*** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
   </si>
 </sst>
 </file>
@@ -2182,7 +2639,7 @@
         <v>248</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>120</v>
@@ -2221,7 +2678,7 @@
         <v>249</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>120</v>
@@ -2257,13 +2714,13 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>287</v>
+        <v>120</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>106</v>
@@ -2299,7 +2756,7 @@
         <v>249</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>120</v>
@@ -2341,13 +2798,13 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>289</v>
+        <v>120</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>106</v>
@@ -2382,13 +2839,13 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>291</v>
+        <v>120</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>106</v>
@@ -2421,13 +2878,13 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>292</v>
+        <v>120</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>106</v>
@@ -2462,13 +2919,13 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>294</v>
+        <v>120</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>106</v>
@@ -2502,7 +2959,7 @@
         <v>248</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>120</v>
@@ -2541,7 +2998,7 @@
         <v>249</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>120</v>
@@ -2581,13 +3038,13 @@
         <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>296</v>
+        <v>120</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>106</v>
@@ -2620,13 +3077,13 @@
         <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>297</v>
+        <v>120</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>106</v>
@@ -2662,7 +3119,7 @@
         <v>249</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>120</v>
@@ -2700,13 +3157,13 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>106</v>
@@ -2739,13 +3196,13 @@
         <v>36</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>106</v>
@@ -2778,13 +3235,13 @@
         <v>36</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>301</v>
+        <v>120</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>106</v>
@@ -2821,13 +3278,13 @@
         <v>36</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>106</v>
@@ -2860,13 +3317,13 @@
         <v>36</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>304</v>
+        <v>120</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>106</v>
@@ -2901,13 +3358,13 @@
         <v>36</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>306</v>
+        <v>120</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>106</v>
@@ -2942,13 +3399,13 @@
         <v>36</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>308</v>
+        <v>120</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>106</v>
@@ -2983,13 +3440,13 @@
         <v>36</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>308</v>
+        <v>120</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>106</v>
@@ -3024,13 +3481,13 @@
         <v>36</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>304</v>
+        <v>120</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>106</v>
@@ -3065,13 +3522,13 @@
         <v>36</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>304</v>
+        <v>120</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>106</v>
@@ -3104,13 +3561,13 @@
         <v>36</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>304</v>
+        <v>120</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>106</v>
@@ -3145,13 +3602,13 @@
         <v>36</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>304</v>
+        <v>120</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>106</v>
@@ -3186,13 +3643,13 @@
         <v>36</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>304</v>
+        <v>120</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>106</v>
@@ -3225,13 +3682,13 @@
         <v>36</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>106</v>
@@ -3266,13 +3723,13 @@
         <v>36</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>304</v>
+        <v>120</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>106</v>
@@ -3305,13 +3762,13 @@
         <v>36</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>297</v>
+        <v>120</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>106</v>
@@ -3347,7 +3804,7 @@
         <v>249</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>120</v>
@@ -3383,13 +3840,13 @@
         <v>108</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>106</v>
@@ -3424,13 +3881,13 @@
         <v>178</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>311</v>
+        <v>120</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>106</v>
@@ -3465,13 +3922,13 @@
         <v>187</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>106</v>
@@ -3506,13 +3963,13 @@
         <v>187</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>106</v>
@@ -3627,13 +4084,13 @@
         <v>207</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>314</v>
+        <v>120</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>106</v>
@@ -3703,13 +4160,13 @@
         <v>211</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>315</v>
+        <v>120</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>106</v>
@@ -3744,13 +4201,13 @@
         <v>215</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>106</v>
@@ -3785,13 +4242,13 @@
         <v>207</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>319</v>
+        <v>120</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>106</v>
@@ -3824,13 +4281,13 @@
         <v>211</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>106</v>
@@ -3865,13 +4322,13 @@
         <v>221</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>322</v>
+        <v>120</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>106</v>
@@ -3906,13 +4363,13 @@
         <v>114</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>106</v>
@@ -3947,13 +4404,13 @@
         <v>114</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>106</v>
@@ -3988,13 +4445,13 @@
         <v>114</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>106</v>
@@ -4029,13 +4486,13 @@
         <v>114</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="O48" s="4" t="s">
         <v>106</v>
@@ -4070,13 +4527,13 @@
         <v>114</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>106</v>
@@ -4111,13 +4568,13 @@
         <v>114</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="O50" s="4" t="s">
         <v>106</v>
@@ -4150,13 +4607,13 @@
         <v>136</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>325</v>
+        <v>120</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>106</v>
@@ -4191,13 +4648,13 @@
         <v>118</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>106</v>
@@ -4236,7 +4693,7 @@
         <v>151</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>106</v>
@@ -4271,13 +4728,13 @@
         <v>118</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="O54" s="4" t="s">
         <v>106</v>
@@ -4310,13 +4767,13 @@
         <v>136</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>329</v>
+        <v>120</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>106</v>
@@ -4351,13 +4808,13 @@
         <v>132</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>106</v>
@@ -4395,7 +4852,7 @@
         <v>277</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>120</v>
@@ -4431,13 +4888,13 @@
         <v>136</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>331</v>
+        <v>120</v>
       </c>
       <c r="O58" s="4" t="s">
         <v>106</v>
@@ -4470,13 +4927,13 @@
         <v>230</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>333</v>
+        <v>120</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>106</v>
@@ -4509,13 +4966,13 @@
         <v>142</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>334</v>
+        <v>120</v>
       </c>
       <c r="O60" s="4" t="s">
         <v>106</v>
@@ -4548,13 +5005,13 @@
         <v>145</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="O61" s="4" t="s">
         <v>106</v>
@@ -4625,7 +5082,7 @@
         <v>249</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>120</v>

--- a/lib_testcase/com.aislend.ViewCart.xlsx
+++ b/lib_testcase/com.aislend.ViewCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="283">
   <si>
     <t>Action</t>
   </si>
@@ -442,12 +442,6 @@
     <t>//div[normalize-space(@class) = 'cart-summary']</t>
   </si>
   <si>
-    <t xml:space="preserve">VerifySummaryViewCart succesfully </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeleteProductfromViewCart succesfully </t>
-  </si>
-  <si>
     <t>Click on  User name</t>
   </si>
   <si>
@@ -475,9 +469,6 @@
     <t>"6000"</t>
   </si>
   <si>
-    <t>Text Entered successfully: 6000</t>
-  </si>
-  <si>
     <t>//*[@id="wrap"]/header/div[1]/div/div[2]/ul/li[3]/a</t>
   </si>
   <si>
@@ -652,9 +643,6 @@
     <t>user should able to enter email</t>
   </si>
   <si>
-    <t>Text Entered successfully: asdasd@</t>
-  </si>
-  <si>
     <t>Click on join button</t>
   </si>
   <si>
@@ -679,9 +667,6 @@
     <t>asdasd@assdcsadsaasd.com</t>
   </si>
   <si>
-    <t>Text Entered successfully: asdasd@assdcsadsaasd.com</t>
-  </si>
-  <si>
     <t>Verify Message should appear on the screen</t>
   </si>
   <si>
@@ -694,15 +679,6 @@
     <t>"Thank you for your subscription." messge should appear on the screen</t>
   </si>
   <si>
-    <t>text verified: Thank you for your subscription.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RemoveInstruction succesfully </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddProductfromViewCart succesfully </t>
-  </si>
-  <si>
     <t>US_ID_09</t>
   </si>
   <si>
@@ -727,57 +703,206 @@
     <t>all</t>
   </si>
   <si>
-    <t>Add product successfully</t>
-  </si>
-  <si>
-    <t>Select Substitute successfully: Allow Substitute for product: null</t>
-  </si>
-  <si>
-    <t>VerifyFooterLinks successfully: null</t>
-  </si>
-  <si>
     <t>wait</t>
   </si>
   <si>
-    <t>text verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
-  </si>
-  <si>
-    <t>Select Substitute successfully: Do Not Allow Substitute for product: null</t>
-  </si>
-  <si>
     <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
   </si>
   <si>
-    <t>Title verified succesfully: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RemoveProductfromViewCart succesfully </t>
-  </si>
-  <si>
-    <t>Text Entered successfully: userchandna4269593@mailinator.com</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: Randomemailid</t>
+    <t>action VerifySummaryViewCart failed: null  null</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash sangal</t>
+  </si>
+  <si>
+    <t>MoveToProductList: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>VerifyNoElement: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: exist</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: Banquet Brown 'N Serve Turkey Sausage Links</t>
+  </si>
+  <si>
+    <t>EditInstruction: Bye</t>
+  </si>
+  <si>
+    <t>RemoveInstruction: null</t>
+  </si>
+  <si>
+    <t>SetText: asdasd@</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>SetText: asdasd@assdcsadsaasd.com</t>
+  </si>
+  <si>
+    <t>VerifyText: Thank you for your subscription.</t>
+  </si>
+  <si>
+    <t>VerifyFooterLinks: null</t>
+  </si>
+  <si>
+    <t>VerifyText: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>SetText: userchandna6215605@mailinator.com</t>
   </si>
   <si>
     <t>action AddInstruction failed: Hello</t>
   </si>
   <si>
-    <t>element not visible
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']}</t>
+  </si>
+  <si>
+    <t>text not verified: Customers can opt for replacements in case an item is out of stock. We will choose a replacement item that is comparable to the original based on brand, flavor, size and price. You will be notified of replacements and will have the opportunity to approve the replacement or request a refund for the item.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 33 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir2304_5586}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3029accc9e73fa132c825781c7109fc7</t>
-  </si>
-  <si>
-    <t>action VerifySummaryViewCart failed: null  null</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 11 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
+  </si>
+  <si>
+    <t>action Select Substitute failed: Do Not Allow Substitute</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 22 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
+  </si>
+  <si>
+    <t>action Select Substitute failed: Allow Substitute</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'cart-summary']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'cart-summary']}</t>
+  </si>
+  <si>
+    <t>action AddProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 14 milliseconds
@@ -785,169 +910,12 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir2304_5586}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3029accc9e73fa132c825781c7109fc7
-*** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
-  </si>
-  <si>
-    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
-  </si>
-  <si>
-    <t>VerifyElement: null</t>
-  </si>
-  <si>
-    <t>Click: null</t>
-  </si>
-  <si>
-    <t>SetText: Randomemailid</t>
-  </si>
-  <si>
-    <t>SetText: 123456</t>
-  </si>
-  <si>
-    <t>VerifyText: Akash sangal</t>
-  </si>
-  <si>
-    <t>MoveToProductList: Quick &amp; Easy Food Solutions</t>
-  </si>
-  <si>
-    <t>text not verified: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir1852_6395}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: c722fa5f1e07794f4a62674b45560173</t>
-  </si>
-  <si>
-    <t>VerifyNoElement: null</t>
-  </si>
-  <si>
-    <t>MoveAndAddProduct: null</t>
-  </si>
-  <si>
-    <t>MoveAndAddProduct: exist</t>
-  </si>
-  <si>
-    <t>MoveAndAddProduct: Banquet Brown 'N Serve Turkey Sausage Links</t>
-  </si>
-  <si>
-    <t>text not verified: Customers can opt for replacements in case an item is out of stock. We will choose a replacement item that is comparable to the original based on brand, flavor, size and price. You will be notified of replacements and will have the opportunity to approve the replacement or request a refund for the item.</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir1852_6395}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: c722fa5f1e07794f4a62674b45560173</t>
-  </si>
-  <si>
-    <t>AddInstruction: Hello</t>
-  </si>
-  <si>
-    <t>EditInstruction: Bye</t>
-  </si>
-  <si>
-    <t>RemoveInstruction: null</t>
-  </si>
-  <si>
-    <t>SetText: asdasd@</t>
-  </si>
-  <si>
-    <t>Wait: 6000</t>
-  </si>
-  <si>
-    <t>VerifyText: Please enter a valid email address (Ex: johndoe@domain.com).</t>
-  </si>
-  <si>
-    <t>SetText: asdasd@assdcsadsaasd.com</t>
-  </si>
-  <si>
-    <t>VerifyText: Thank you for your subscription.</t>
-  </si>
-  <si>
-    <t>SelectSubstitute: Do Not Allow Substitute</t>
-  </si>
-  <si>
-    <t>SelectSubstitute: Allow Substitute</t>
-  </si>
-  <si>
-    <t>VerifySummaryViewCart: null</t>
-  </si>
-  <si>
-    <t>AddProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>RemoveProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>DeleteProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>DeleteProductfromViewCart: all</t>
-  </si>
-  <si>
-    <t>VerifyFooterLinks: null</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir14748_8883}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: e94edf47ff520170e7f7d76c7c135db7</t>
-  </si>
-  <si>
-    <t>VerifyText: Customers can opt for replacements in case an item is out of stock. We will choose a replacement item that is comparable to the original based on brand, flavor, size and price. You will be notified of replacements and will have the opportunity to approve the replacement or request a refund for the item.</t>
-  </si>
-  <si>
-    <t>For input string: "Free"</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir14748_8883}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: e94edf47ff520170e7f7d76c7c135db7
-*** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir14748_8883}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: e94edf47ff520170e7f7d76c7c135db7
-*** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
-  </si>
-  <si>
-    <t>VerifyText: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3fddb53966380820a83efadd593af767</t>
-  </si>
-  <si>
-    <t>action click failed</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'cart-summary']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 15 milliseconds
@@ -955,71 +923,60 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
-  </si>
-  <si>
-    <t>action set text failed: Randomemailid</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'cart-summary']}</t>
+  </si>
+  <si>
+    <t>action RemoveProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
+Command duration or timeout: 26 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
-  </si>
-  <si>
-    <t>action set text failed: 123456</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'cart-summary']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
+Command duration or timeout: 17 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'cart-summary']}</t>
+  </si>
+  <si>
+    <t>action DeleteProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>action DeleteProductfromViewCart failed: all</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
+Command duration or timeout: 12 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
-  </si>
-  <si>
-    <t>text not verified: Akash sangal</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //span[contains(text(),'Akash')] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
-  </si>
-  <si>
-    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'cart-summary']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 11 milliseconds
@@ -1027,803 +984,52 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'cart-summary']}</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>VerifyText: Customers can opt for replacements in case an item is out of stock. We will choose a replacement item that is comparable to the original based on brand, flavor, size and price. You will be notified of replacements and will have the opportunity to approve the replacement or request a refund for the item.</t>
+  </si>
+  <si>
+    <t>AddInstruction: Hello</t>
+  </si>
+  <si>
+    <t>SelectSubstitute: Do Not Allow Substitute</t>
+  </si>
+  <si>
+    <t>SelectSubstitute: Allow Substitute</t>
+  </si>
+  <si>
+    <t>VerifySummaryViewCart: null</t>
+  </si>
+  <si>
+    <t>AddProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>RemoveProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>DeleteProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>DeleteProductfromViewCart: all</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'cart-summary']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 12 milliseconds
+Command duration or timeout: 46 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 7 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>Element not verified</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 12 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 10 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>action Move and add product failed: null</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 12 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>action Move and add product failed: exist</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 11 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>action Move and add product failed: Banquet Brown 'N Serve Turkey Sausage Links</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 9 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 13 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']}</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
-  </si>
-  <si>
-    <t>bound must be positive</t>
-  </si>
-  <si>
-    <t>action set text failed: asdasd@</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 26 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=newsletter}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
-  </si>
-  <si>
-    <t>text not verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.id: newsletter-error (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
-  </si>
-  <si>
-    <t>action set text failed: asdasd@assdcsadsaasd.com</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 8 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=newsletter}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 9 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
-  </si>
-  <si>
-    <t>text not verified: Thank you for your subscription.</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'text'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
-  </si>
-  <si>
-    <t>action Select Substitute failed: Do Not Allow Substitute</t>
-  </si>
-  <si>
-    <t>action Select Substitute failed: Allow Substitute</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 22 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
-  </si>
-  <si>
-    <t>action AddProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
-  </si>
-  <si>
-    <t>action RemoveProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 11 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
-  </si>
-  <si>
-    <t>action DeleteProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
-  </si>
-  <si>
-    <t>action VerifyFooterLinks failed</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'footer__inner-left']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'footer__inner-left']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16332_11117}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 9c18b6eba1fd84c2d299ea53aea5b4dc</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16332_11117}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 9c18b6eba1fd84c2d299ea53aea5b4dc</t>
-  </si>
-  <si>
-    <t>unknown error: Element &lt;input type="radio" data-bind="click: getSubstitute.bind($data,0, quoteid, itemid,'notallowed_'), attr: {checked: isNotChecked(), name: getAllowedName(), id: getNotAllowedName()}" name="allowed_3124" id="notallowed_3124"&gt; is not clickable at point (161, 6). Other element would receive the click: &lt;img src="https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png" alt="City Market Norwalk" width="148" height="43"&gt;
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 123 milliseconds
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16332_11117}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 9c18b6eba1fd84c2d299ea53aea5b4dc</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 19 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //span[contains(text(),'Akash')] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 12 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 12 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 30 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 64 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 62 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 43 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 37 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 27 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 61 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 31 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 28 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']}</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 32 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=newsletter}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 23 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.id: newsletter-error (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=newsletter}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 21 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'text'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 64 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 42 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 59 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'footer__inner-left']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 26 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'footer__inner-left']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 24 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 31 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5748_14413}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0a6edcb7a5ce9e8996ef2813ea87b4d0
-*** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir9328_11835}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 8ce96e907ee16ee281e57b60c78991b0
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'cart-summary']}</t>
   </si>
 </sst>
 </file>
@@ -2454,7 +1660,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2462,7 +1668,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2470,15 +1676,15 @@
         <v>72</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2486,7 +1692,7 @@
         <v>93</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2494,7 +1700,7 @@
         <v>94</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2502,7 +1708,7 @@
         <v>95</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2510,15 +1716,15 @@
         <v>96</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2543,7 +1749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2611,7 +1817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row ht="180" r="2" spans="1:15">
+    <row ht="135" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -2627,7 +1833,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -2636,7 +1842,7 @@
         <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>119</v>
@@ -2675,7 +1881,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>119</v>
@@ -2714,7 +1920,7 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>119</v>
@@ -2753,7 +1959,7 @@
         <v>46</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>119</v>
@@ -2765,7 +1971,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="120" r="6" spans="1:15">
+    <row ht="75" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2798,7 +2004,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>119</v>
@@ -2810,7 +2016,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="60" r="7" spans="1:15">
+    <row ht="45" r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2839,7 +2045,7 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>119</v>
@@ -2878,7 +2084,7 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>119</v>
@@ -2907,7 +2113,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>65</v>
@@ -2919,7 +2125,7 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>119</v>
@@ -2931,7 +2137,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="180" r="10" spans="1:15">
+    <row ht="135" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -2947,7 +2153,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2956,7 +2162,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>119</v>
@@ -2995,7 +2201,7 @@
         <v>36</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>119</v>
@@ -3038,7 +2244,7 @@
         <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>119</v>
@@ -3077,7 +2283,7 @@
         <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>119</v>
@@ -3094,7 +2300,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>80</v>
@@ -3116,7 +2322,7 @@
         <v>36</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>119</v>
@@ -3128,12 +2334,12 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="105" r="15" spans="1:15">
+    <row ht="90" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>82</v>
@@ -3157,7 +2363,7 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>119</v>
@@ -3169,12 +2375,12 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="45" r="16" spans="1:15">
+    <row ht="30" r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>85</v>
@@ -3196,7 +2402,7 @@
         <v>36</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>119</v>
@@ -3213,7 +2419,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>87</v>
@@ -3235,7 +2441,7 @@
         <v>36</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>119</v>
@@ -3252,7 +2458,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>73</v>
@@ -3278,7 +2484,7 @@
         <v>36</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>119</v>
@@ -3295,7 +2501,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>89</v>
@@ -3317,7 +2523,7 @@
         <v>36</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>119</v>
@@ -3334,7 +2540,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>89</v>
@@ -3349,7 +2555,7 @@
         <v>91</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="4"/>
@@ -3358,7 +2564,7 @@
         <v>36</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>119</v>
@@ -3370,12 +2576,12 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="75" r="21" spans="1:15">
+    <row ht="120" r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>89</v>
@@ -3399,7 +2605,7 @@
         <v>36</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>119</v>
@@ -3416,7 +2622,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>89</v>
@@ -3431,7 +2637,7 @@
         <v>91</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -3440,7 +2646,7 @@
         <v>36</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>119</v>
@@ -3457,7 +2663,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>89</v>
@@ -3472,7 +2678,7 @@
         <v>91</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -3481,7 +2687,7 @@
         <v>36</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>119</v>
@@ -3498,7 +2704,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>89</v>
@@ -3513,7 +2719,7 @@
         <v>91</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -3522,7 +2728,7 @@
         <v>36</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>119</v>
@@ -3539,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>89</v>
@@ -3561,7 +2767,7 @@
         <v>36</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>119</v>
@@ -3578,7 +2784,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>89</v>
@@ -3593,7 +2799,7 @@
         <v>91</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -3602,7 +2808,7 @@
         <v>36</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>119</v>
@@ -3619,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>89</v>
@@ -3634,7 +2840,7 @@
         <v>91</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -3643,7 +2849,7 @@
         <v>36</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>119</v>
@@ -3660,7 +2866,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>89</v>
@@ -3682,7 +2888,7 @@
         <v>36</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>119</v>
@@ -3699,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>89</v>
@@ -3714,7 +2920,7 @@
         <v>91</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -3723,7 +2929,7 @@
         <v>36</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>119</v>
@@ -3740,7 +2946,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>78</v>
@@ -3762,7 +2968,7 @@
         <v>36</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>119</v>
@@ -3779,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>80</v>
@@ -3801,7 +3007,7 @@
         <v>36</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>119</v>
@@ -3813,12 +3019,12 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="60" r="32" spans="1:15">
+    <row ht="409.5" r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>107</v>
@@ -3840,7 +3046,7 @@
         <v>108</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>119</v>
@@ -3860,7 +3066,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>64</v>
@@ -3869,19 +3075,19 @@
         <v>29</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>119</v>
@@ -3893,7 +3099,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="45" r="34" spans="1:15">
+    <row ht="409.5" r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>72</v>
       </c>
@@ -3901,10 +3107,10 @@
         <v>27</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>29</v>
@@ -3913,16 +3119,16 @@
         <v>112</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>119</v>
@@ -3934,7 +3140,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="45" r="35" spans="1:15">
+    <row ht="409.5" r="35" spans="1:15">
       <c r="A35" s="4" t="s">
         <v>72</v>
       </c>
@@ -3942,10 +3148,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>29</v>
@@ -3954,16 +3160,16 @@
         <v>112</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>119</v>
@@ -3975,7 +3181,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="45" r="36" spans="1:15">
+    <row ht="30" r="36" spans="1:15">
       <c r="A36" s="4" t="s">
         <v>72</v>
       </c>
@@ -3983,10 +3189,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>29</v>
@@ -3995,16 +3201,16 @@
         <v>112</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>119</v>
@@ -4024,10 +3230,10 @@
         <v>43</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>29</v>
@@ -4040,30 +3246,30 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row ht="30" r="38" spans="1:15">
+      <c r="A38" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row ht="60" r="38" spans="1:15">
-      <c r="A38" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>49</v>
@@ -4072,19 +3278,19 @@
         <v>50</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>119</v>
@@ -4096,32 +3302,32 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="60" r="39" spans="1:15">
+    <row ht="15" r="39" spans="1:15">
       <c r="A39" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>119</v>
@@ -4135,13 +3341,13 @@
     </row>
     <row ht="45" r="40" spans="1:15">
       <c r="A40" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>28</v>
@@ -4150,17 +3356,17 @@
         <v>29</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>119</v>
@@ -4172,15 +3378,15 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="150" r="41" spans="1:15">
+    <row ht="135" r="41" spans="1:15">
       <c r="A41" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>64</v>
@@ -4189,19 +3395,19 @@
         <v>50</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>119</v>
@@ -4213,15 +3419,15 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="105" r="42" spans="1:15">
+    <row ht="60" r="42" spans="1:15">
       <c r="A42" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>49</v>
@@ -4230,19 +3436,19 @@
         <v>50</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>119</v>
@@ -4256,13 +3462,13 @@
     </row>
     <row ht="45" r="43" spans="1:15">
       <c r="A43" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>28</v>
@@ -4271,17 +3477,17 @@
         <v>29</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>119</v>
@@ -4293,15 +3499,15 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="90" r="44" spans="1:15">
+    <row ht="75" r="44" spans="1:15">
       <c r="A44" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>64</v>
@@ -4310,19 +3516,19 @@
         <v>29</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>119</v>
@@ -4334,7 +3540,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="135" r="45" spans="1:15">
+    <row ht="409.5" r="45" spans="1:15">
       <c r="A45" s="4" t="s">
         <v>93</v>
       </c>
@@ -4363,7 +3569,7 @@
         <v>114</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>119</v>
@@ -4375,7 +3581,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="120" r="46" spans="1:15">
+    <row ht="409.5" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
         <v>93</v>
       </c>
@@ -4404,7 +3610,7 @@
         <v>114</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>119</v>
@@ -4416,7 +3622,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="120" r="47" spans="1:15">
+    <row ht="409.5" r="47" spans="1:15">
       <c r="A47" s="4" t="s">
         <v>93</v>
       </c>
@@ -4445,7 +3651,7 @@
         <v>114</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>119</v>
@@ -4457,7 +3663,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="135" r="48" spans="1:15">
+    <row ht="409.5" r="48" spans="1:15">
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
@@ -4486,7 +3692,7 @@
         <v>114</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>119</v>
@@ -4498,7 +3704,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="120" r="49" spans="1:15">
+    <row ht="409.5" r="49" spans="1:15">
       <c r="A49" s="4" t="s">
         <v>93</v>
       </c>
@@ -4527,7 +3733,7 @@
         <v>114</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>119</v>
@@ -4539,7 +3745,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="120" r="50" spans="1:15">
+    <row ht="409.5" r="50" spans="1:15">
       <c r="A50" s="4" t="s">
         <v>93</v>
       </c>
@@ -4568,7 +3774,7 @@
         <v>114</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>119</v>
@@ -4580,7 +3786,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="60" r="51" spans="1:15">
+    <row ht="409.5" r="51" spans="1:15">
       <c r="A51" s="4" t="s">
         <v>93</v>
       </c>
@@ -4607,7 +3813,7 @@
         <v>136</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>119</v>
@@ -4648,7 +3854,7 @@
         <v>118</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>119</v>
@@ -4687,13 +3893,13 @@
         <v>136</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>373</v>
+        <v>120</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>106</v>
@@ -4707,10 +3913,10 @@
         <v>32</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>29</v>
@@ -4728,7 +3934,7 @@
         <v>118</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>119</v>
@@ -4767,7 +3973,7 @@
         <v>136</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>119</v>
@@ -4808,7 +4014,7 @@
         <v>132</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>119</v>
@@ -4840,7 +4046,7 @@
         <v>112</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -4849,7 +4055,7 @@
         <v>132</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>119</v>
@@ -4888,7 +4094,7 @@
         <v>136</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>119</v>
@@ -4908,26 +4114,26 @@
         <v>27</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>119</v>
@@ -4941,13 +4147,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="60" spans="1:15">
       <c r="A60" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>28</v>
@@ -4956,17 +4162,17 @@
         <v>29</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>119</v>
@@ -4980,13 +4186,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="61" spans="1:15">
       <c r="A61" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>28</v>
@@ -4995,17 +4201,17 @@
         <v>29</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>119</v>
@@ -5019,28 +4225,28 @@
     </row>
     <row customHeight="1" ht="41.25" r="62" spans="1:15">
       <c r="A62" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>119</v>
@@ -5054,7 +4260,7 @@
     </row>
     <row customHeight="1" ht="41.25" r="63" spans="1:15">
       <c r="A63" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>43</v>
@@ -5069,7 +4275,7 @@
         <v>29</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -5079,7 +4285,7 @@
         <v>40</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>119</v>
@@ -5199,7 +4405,7 @@
         <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>119</v>
@@ -5361,7 +4567,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>119</v>
@@ -5519,7 +4725,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>119</v>
@@ -5657,7 +4863,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>80</v>
@@ -5696,7 +4902,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>82</v>
@@ -5720,7 +4926,7 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>119</v>
@@ -5737,7 +4943,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>85</v>
@@ -5776,7 +4982,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>87</v>
@@ -5815,7 +5021,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>73</v>
@@ -5858,7 +5064,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>89</v>
@@ -5899,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>89</v>
@@ -5940,7 +5146,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>89</v>
@@ -5981,7 +5187,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>89</v>
@@ -6022,7 +5228,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>89</v>
@@ -6046,10 +5252,10 @@
         <v>36</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>120</v>
@@ -6063,7 +5269,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>89</v>
@@ -6104,7 +5310,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>78</v>
@@ -6143,7 +5349,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>80</v>
@@ -6182,7 +5388,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>107</v>
@@ -6224,7 +5430,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>64</v>
@@ -6233,19 +5439,19 @@
         <v>29</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>119</v>
@@ -6265,10 +5471,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>29</v>
@@ -6280,15 +5486,15 @@
         <v>101</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>119</v>
@@ -6308,10 +5514,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>29</v>
@@ -6323,15 +5529,15 @@
         <v>102</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>119</v>
@@ -6351,10 +5557,10 @@
         <v>32</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>29</v>
@@ -6366,15 +5572,15 @@
         <v>102</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>119</v>
@@ -6394,10 +5600,10 @@
         <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>29</v>
@@ -6412,10 +5618,10 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>119</v>

--- a/lib_testcase/com.aislend.ViewCart.xlsx
+++ b/lib_testcase/com.aislend.ViewCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="283">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.ViewCart.xlsx
+++ b/lib_testcase/com.aislend.ViewCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="260">
   <si>
     <t>Action</t>
   </si>
@@ -769,98 +769,37 @@
     <t>VerifyText: You have no items in your shopping cart.</t>
   </si>
   <si>
-    <t>SetText: userchandna6215605@mailinator.com</t>
-  </si>
-  <si>
-    <t>action AddInstruction failed: Hello</t>
-  </si>
-  <si>
-    <t>action click failed</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 26 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action viewcart btn btn__hollow btn-block']}</t>
-  </si>
-  <si>
-    <t>text not verified: Customers can opt for replacements in case an item is out of stock. We will choose a replacement item that is comparable to the original based on brand, flavor, size and price. You will be notified of replacements and will have the opportunity to approve the replacement or request a refund for the item.</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 33 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 11 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
-  </si>
-  <si>
-    <t>action Select Substitute failed: Do Not Allow Substitute</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 22 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
-  </si>
-  <si>
-    <t>action Select Substitute failed: Allow Substitute</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>VerifyText: Customers can opt for replacements in case an item is out of stock. We will choose a replacement item that is comparable to the original based on brand, flavor, size and price. You will be notified of replacements and will have the opportunity to approve the replacement or request a refund for the item.</t>
+  </si>
+  <si>
+    <t>AddInstruction: Hello</t>
+  </si>
+  <si>
+    <t>SelectSubstitute: Do Not Allow Substitute</t>
+  </si>
+  <si>
+    <t>SelectSubstitute: Allow Substitute</t>
+  </si>
+  <si>
+    <t>VerifySummaryViewCart: null</t>
+  </si>
+  <si>
+    <t>AddProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>RemoveProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>DeleteProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>DeleteProductfromViewCart: all</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 17 milliseconds
@@ -868,168 +807,15 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'cart-summary']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'cart-summary']}</t>
-  </si>
-  <si>
-    <t>action AddProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'cart-summary']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'cart-summary']}</t>
-  </si>
-  <si>
-    <t>action RemoveProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 26 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'cart-summary']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 17 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'cart-summary']}</t>
-  </si>
-  <si>
-    <t>action DeleteProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>action DeleteProductfromViewCart failed: all</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="shopping-cart-table"]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 12 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//*[@id="shopping-cart-table"]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'cart-summary']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 11 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'cart-summary']}</t>
-  </si>
-  <si>
-    <t>SetText: Randomemailid</t>
-  </si>
-  <si>
-    <t>VerifyText: Customers can opt for replacements in case an item is out of stock. We will choose a replacement item that is comparable to the original based on brand, flavor, size and price. You will be notified of replacements and will have the opportunity to approve the replacement or request a refund for the item.</t>
-  </si>
-  <si>
-    <t>AddInstruction: Hello</t>
-  </si>
-  <si>
-    <t>SelectSubstitute: Do Not Allow Substitute</t>
-  </si>
-  <si>
-    <t>SelectSubstitute: Allow Substitute</t>
-  </si>
-  <si>
-    <t>VerifySummaryViewCart: null</t>
-  </si>
-  <si>
-    <t>AddProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>RemoveProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>DeleteProductfromViewCart: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t>DeleteProductfromViewCart: all</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'cart-summary']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 46 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir9328_11835}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 8ce96e907ee16ee281e57b60c78991b0
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'cart-summary']}</t>
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11912_29672}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a35c3999676c4eb04cb6f7f8a978a85
+*** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
+  </si>
+  <si>
+    <t>userchandna7049580@mailinator.com</t>
+  </si>
+  <si>
+    <t>SetText: userchandna7049580@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -1729,17 +1515,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1749,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="41.25"/>
@@ -1971,7 +1757,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="75" r="6" spans="1:15">
+    <row ht="45" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1991,7 +1777,7 @@
         <v>51</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>115</v>
@@ -2004,7 +1790,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>119</v>
@@ -3019,7 +2805,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="409.5" r="32" spans="1:15">
+    <row ht="60" r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
@@ -3087,7 +2873,7 @@
         <v>175</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>119</v>
@@ -3099,7 +2885,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="409.5" r="34" spans="1:15">
+    <row ht="30" r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>72</v>
       </c>
@@ -3128,7 +2914,7 @@
         <v>184</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>119</v>
@@ -3140,7 +2926,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="409.5" r="35" spans="1:15">
+    <row ht="30" r="35" spans="1:15">
       <c r="A35" s="4" t="s">
         <v>72</v>
       </c>
@@ -3169,7 +2955,7 @@
         <v>184</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>119</v>
@@ -3540,7 +3326,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="409.5" r="45" spans="1:15">
+    <row ht="60" r="45" spans="1:15">
       <c r="A45" s="4" t="s">
         <v>93</v>
       </c>
@@ -3569,7 +3355,7 @@
         <v>114</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>119</v>
@@ -3581,7 +3367,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="409.5" r="46" spans="1:15">
+    <row ht="60" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
         <v>93</v>
       </c>
@@ -3610,7 +3396,7 @@
         <v>114</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>119</v>
@@ -3622,7 +3408,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="409.5" r="47" spans="1:15">
+    <row ht="60" r="47" spans="1:15">
       <c r="A47" s="4" t="s">
         <v>93</v>
       </c>
@@ -3651,7 +3437,7 @@
         <v>114</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>119</v>
@@ -3663,7 +3449,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="409.5" r="48" spans="1:15">
+    <row ht="60" r="48" spans="1:15">
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
@@ -3692,7 +3478,7 @@
         <v>114</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>119</v>
@@ -3704,7 +3490,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="409.5" r="49" spans="1:15">
+    <row ht="60" r="49" spans="1:15">
       <c r="A49" s="4" t="s">
         <v>93</v>
       </c>
@@ -3733,7 +3519,7 @@
         <v>114</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>119</v>
@@ -3745,7 +3531,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="409.5" r="50" spans="1:15">
+    <row ht="60" r="50" spans="1:15">
       <c r="A50" s="4" t="s">
         <v>93</v>
       </c>
@@ -3774,7 +3560,7 @@
         <v>114</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>119</v>
@@ -3786,7 +3572,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="409.5" r="51" spans="1:15">
+    <row ht="45" r="51" spans="1:15">
       <c r="A51" s="4" t="s">
         <v>93</v>
       </c>
@@ -3813,7 +3599,7 @@
         <v>136</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>119</v>
@@ -3854,7 +3640,7 @@
         <v>118</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>119</v>
@@ -3893,7 +3679,7 @@
         <v>136</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>119</v>
@@ -3934,7 +3720,7 @@
         <v>118</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>119</v>
@@ -3973,7 +3759,7 @@
         <v>136</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>119</v>
@@ -4014,7 +3800,7 @@
         <v>132</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>119</v>
@@ -4055,7 +3841,7 @@
         <v>132</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>119</v>
@@ -4094,7 +3880,7 @@
         <v>136</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>119</v>

--- a/lib_testcase/com.aislend.ViewCart.xlsx
+++ b/lib_testcase/com.aislend.ViewCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="263">
   <si>
     <t>Action</t>
   </si>
@@ -816,6 +816,30 @@
   </si>
   <si>
     <t>SetText: userchandna7049580@mailinator.com</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: d9b43bc53cf86967166b7f272ed4684c
+*** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
+  </si>
+  <si>
+    <t>text not verified: Customers can opt for replacements in case an item is out of stock. We will choose a replacement item that is comparable to the original based on brand, flavor, size and price. You will be notified of replacements and will have the opportunity to approve the replacement or request a refund for the item.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16516_11503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 3aae65656d428235ae47393de52e7a0d</t>
   </si>
 </sst>
 </file>
@@ -2873,13 +2897,13 @@
         <v>175</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>106</v>

--- a/lib_testcase/com.aislend.ViewCart.xlsx
+++ b/lib_testcase/com.aislend.ViewCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="261">
   <si>
     <t>Action</t>
   </si>
@@ -766,12 +766,6 @@
     <t>VerifyFooterLinks: null</t>
   </si>
   <si>
-    <t>VerifyText: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>SetText: Randomemailid</t>
-  </si>
-  <si>
     <t>VerifyText: Customers can opt for replacements in case an item is out of stock. We will choose a replacement item that is comparable to the original based on brand, flavor, size and price. You will be notified of replacements and will have the opportunity to approve the replacement or request a refund for the item.</t>
   </si>
   <si>
@@ -799,26 +793,13 @@
     <t>DeleteProductfromViewCart: all</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 17 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11912_29672}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a35c3999676c4eb04cb6f7f8a978a85
-*** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
-  </si>
-  <si>
-    <t>userchandna7049580@mailinator.com</t>
-  </si>
-  <si>
     <t>SetText: userchandna7049580@mailinator.com</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
+    <t>text not verified: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//div[normalize-space(@class) = 'cart-empty']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 24 milliseconds
@@ -826,20 +807,23 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: d9b43bc53cf86967166b7f272ed4684c
-*** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
-  </si>
-  <si>
-    <t>text not verified: Customers can opt for replacements in case an item is out of stock. We will choose a replacement item that is comparable to the original based on brand, flavor, size and price. You will be notified of replacements and will have the opportunity to approve the replacement or request a refund for the item.</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17800_878}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 90c707c1cf12f41c381b5a6a3677976b
+*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'cart-empty']}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16516_11503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3aae65656d428235ae47393de52e7a0d</t>
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16768_17220}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: c9bdc0d9e62ef4cd866212b0f2ff220f</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>VerifyText: You have no items in your shopping cart.</t>
   </si>
 </sst>
 </file>
@@ -1539,17 +1523,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1559,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="41.25"/>
@@ -1781,7 +1765,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="45" r="6" spans="1:15">
+    <row ht="75" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1801,7 +1785,7 @@
         <v>51</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>115</v>
@@ -2144,7 +2128,7 @@
         <v>106</v>
       </c>
     </row>
-    <row ht="90" r="15" spans="1:15">
+    <row ht="409.5" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2173,7 +2157,7 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>119</v>
@@ -2897,13 +2881,13 @@
         <v>175</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>262</v>
+        <v>120</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>106</v>
@@ -2938,7 +2922,7 @@
         <v>184</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>119</v>
@@ -2979,7 +2963,7 @@
         <v>184</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>119</v>
@@ -3379,7 +3363,7 @@
         <v>114</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>119</v>
@@ -3420,7 +3404,7 @@
         <v>114</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>119</v>
@@ -3461,7 +3445,7 @@
         <v>114</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>119</v>
@@ -3502,7 +3486,7 @@
         <v>114</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>119</v>
@@ -3543,7 +3527,7 @@
         <v>114</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>119</v>
@@ -3584,7 +3568,7 @@
         <v>114</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>119</v>
@@ -3623,7 +3607,7 @@
         <v>136</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>119</v>
@@ -3664,7 +3648,7 @@
         <v>118</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>119</v>
@@ -3703,7 +3687,7 @@
         <v>136</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>119</v>
@@ -3744,7 +3728,7 @@
         <v>118</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>119</v>
@@ -3783,7 +3767,7 @@
         <v>136</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>119</v>
@@ -3824,7 +3808,7 @@
         <v>132</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>119</v>
@@ -3865,7 +3849,7 @@
         <v>132</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>119</v>
@@ -3904,7 +3888,7 @@
         <v>136</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>119</v>

--- a/lib_testcase/com.aislend.ViewCart.xlsx
+++ b/lib_testcase/com.aislend.ViewCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="303">
   <si>
     <t>Action</t>
   </si>
@@ -824,6 +824,304 @@
   </si>
   <si>
     <t>VerifyText: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5108_9704}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 7dcd4d51e17a926636e51b41671e2c2a
+*** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
+  </si>
+  <si>
+    <t>action AddInstruction failed: Hello</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;a class="cc__gift-edit cc__icon-instructions icon-instructions" data-bind="click: isVisible, attr: {id: getTextAreBoId()}" id="add_instruction_3797"&gt;...&lt;/a&gt; is not clickable at point (82, 23). Other element would receive the click: &lt;img src="https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png" alt="City Market Norwalk" width="148" height="43"&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 36 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir1824_9204}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 3ebe240e9f23a133aa4e0dbf2b543295</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":".//span[normalize-space(@data-th) = 'Shipping']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir1824_9204}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 3ebe240e9f23a133aa4e0dbf2b543295
+*** Element info: {Using=xpath, value=.//span[normalize-space(@data-th) = 'Shipping']}</t>
+  </si>
+  <si>
+    <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery: Title not verified</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.00 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac</t>
+  </si>
+  <si>
+    <t>action set text failed: Randomemailid</t>
+  </si>
+  <si>
+    <t>action set text failed: 123456</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac</t>
+  </si>
+  <si>
+    <t>text not verified: Akash sangal</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//strong[normalize-space(@class) = 'subtitle empty']}</t>
+  </si>
+  <si>
+    <t>Element not verified</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: null</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: exist</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: Banquet Brown 'N Serve Turkey Sausage Links</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>text not verified: Customers can opt for replacements in case an item is out of stock. We will choose a replacement item that is comparable to the original based on brand, flavor, size and price. You will be notified of replacements and will have the opportunity to approve the replacement or request a refund for the item.</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@data-ui-id) = 'checkout-cart-validationmessages-message-error']}</t>
+  </si>
+  <si>
+    <t>action set text failed: asdasd@</t>
+  </si>
+  <si>
+    <t>text not verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=id, value=newsletter-error}</t>
+  </si>
+  <si>
+    <t>action set text failed: asdasd@assdcsadsaasd.com</t>
+  </si>
+  <si>
+    <t>text not verified: Thank you for your subscription.</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'text']}</t>
+  </si>
+  <si>
+    <t>action Select Substitute failed: Do Not Allow Substitute</t>
+  </si>
+  <si>
+    <t>action Select Substitute failed: Allow Substitute</t>
+  </si>
+  <si>
+    <t>action AddProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>bound must be positive</t>
+  </si>
+  <si>
+    <t>action RemoveProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>action DeleteProductfromViewCart failed: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>action VerifyFooterLinks failed</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'footer__inner-left']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'categories-list']//a[contains(text(),'Desserts &amp; Sweets')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17312_18480}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cb48e3f517d71862fa8528904ba1237c
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'categories-list']//a[contains(text(),'Desserts &amp; Sweets')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17312_18480}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cb48e3f517d71862fa8528904ba1237c
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17312_18480}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cb48e3f517d71862fa8528904ba1237c
+*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
   </si>
 </sst>
 </file>
